--- a/excel.xlsx
+++ b/excel.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/huangkunpeng/Downloads/代码/FDLocalizeder-master/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/huangkunpeng/Desktop/MyGithub/iOS-LocalizeScript/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0CE843B6-F08A-274C-BBA4-18F7491EEDAA}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{609E8502-E3D9-8A46-B232-0786E2782738}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16800" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -212,7 +212,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="833" uniqueCount="731">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="834" uniqueCount="732">
   <si>
     <t>High Sex Drive</t>
   </si>
@@ -2699,6 +2699,10 @@
   </si>
   <si>
     <t>It</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>key</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -2807,48 +2811,12 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="10">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC000"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.39997558519241921"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFE699"/>
-        <bgColor rgb="FFFFE699"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.39994506668294322"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC000"/>
-        <bgColor rgb="FFFFE699"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -2858,7 +2826,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.39997558519241921"/>
+        <fgColor theme="0"/>
         <bgColor rgb="FFFFE699"/>
       </patternFill>
     </fill>
@@ -2892,96 +2860,51 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="30">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -3258,24 +3181,27 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H139"/>
+  <dimension ref="A1:F139"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="131" zoomScaleNormal="131" workbookViewId="0">
-      <selection activeCell="D1" sqref="D1"/>
+      <selection activeCell="H6" sqref="H6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16"/>
   <cols>
-    <col min="1" max="1" width="17.1640625" customWidth="1"/>
-    <col min="2" max="2" width="19.5" customWidth="1"/>
-    <col min="3" max="3" width="23.1640625" customWidth="1"/>
-    <col min="4" max="4" width="21.5" customWidth="1"/>
-    <col min="5" max="5" width="24.5" customWidth="1"/>
-    <col min="6" max="6" width="21.83203125" customWidth="1"/>
+    <col min="1" max="1" width="17.1640625" style="4" customWidth="1"/>
+    <col min="2" max="2" width="19.5" style="4" customWidth="1"/>
+    <col min="3" max="3" width="23.1640625" style="4" customWidth="1"/>
+    <col min="4" max="4" width="21.5" style="4" customWidth="1"/>
+    <col min="5" max="5" width="24.5" style="4" customWidth="1"/>
+    <col min="6" max="6" width="21.83203125" style="4" customWidth="1"/>
+    <col min="7" max="16384" width="11" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="25" customHeight="1">
-      <c r="A1" s="29"/>
+    <row r="1" spans="1:6" ht="25" customHeight="1">
+      <c r="A1" s="2" t="s">
+        <v>731</v>
+      </c>
       <c r="B1" s="3" t="s">
         <v>597</v>
       </c>
@@ -3291,17 +3217,15 @@
       <c r="F1" s="3" t="s">
         <v>596</v>
       </c>
-      <c r="G1" s="2"/>
-      <c r="H1" s="2"/>
-    </row>
-    <row r="2" spans="1:8" s="1" customFormat="1" ht="40" customHeight="1">
-      <c r="A2" s="29" t="s">
+    </row>
+    <row r="2" spans="1:6" s="3" customFormat="1" ht="40" customHeight="1">
+      <c r="A2" s="2" t="s">
         <v>598</v>
       </c>
-      <c r="B2" s="4" t="s">
+      <c r="B2" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="4" t="s">
+      <c r="C2" s="5" t="s">
         <v>1</v>
       </c>
       <c r="D2" s="5" t="s">
@@ -3313,17 +3237,15 @@
       <c r="F2" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="G2" s="3"/>
-      <c r="H2" s="3"/>
-    </row>
-    <row r="3" spans="1:8" ht="32">
-      <c r="A3" s="29" t="s">
+    </row>
+    <row r="3" spans="1:6" ht="32">
+      <c r="A3" s="2" t="s">
         <v>599</v>
       </c>
-      <c r="B3" s="4" t="s">
+      <c r="B3" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="C3" s="4" t="s">
+      <c r="C3" s="5" t="s">
         <v>6</v>
       </c>
       <c r="D3" s="5" t="s">
@@ -3336,14 +3258,14 @@
         <v>9</v>
       </c>
     </row>
-    <row r="4" spans="1:8">
-      <c r="A4" s="29" t="s">
+    <row r="4" spans="1:6">
+      <c r="A4" s="2" t="s">
         <v>600</v>
       </c>
-      <c r="B4" s="4" t="s">
+      <c r="B4" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="C4" s="4" t="s">
+      <c r="C4" s="5" t="s">
         <v>11</v>
       </c>
       <c r="D4" s="5" t="s">
@@ -3356,8 +3278,8 @@
         <v>14</v>
       </c>
     </row>
-    <row r="5" spans="1:8">
-      <c r="A5" s="29" t="s">
+    <row r="5" spans="1:6">
+      <c r="A5" s="2" t="s">
         <v>601</v>
       </c>
       <c r="B5" s="6" t="s">
@@ -3376,14 +3298,14 @@
         <v>18</v>
       </c>
     </row>
-    <row r="6" spans="1:8" ht="32">
-      <c r="A6" s="29" t="s">
+    <row r="6" spans="1:6" ht="32">
+      <c r="A6" s="2" t="s">
         <v>602</v>
       </c>
-      <c r="B6" s="7" t="s">
+      <c r="B6" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="C6" s="4" t="s">
+      <c r="C6" s="5" t="s">
         <v>20</v>
       </c>
       <c r="D6" s="5" t="s">
@@ -3396,14 +3318,14 @@
         <v>23</v>
       </c>
     </row>
-    <row r="7" spans="1:8">
-      <c r="A7" s="29" t="s">
+    <row r="7" spans="1:6">
+      <c r="A7" s="2" t="s">
         <v>603</v>
       </c>
-      <c r="B7" s="4" t="s">
+      <c r="B7" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="C7" s="4" t="s">
+      <c r="C7" s="5" t="s">
         <v>25</v>
       </c>
       <c r="D7" s="5" t="s">
@@ -3416,14 +3338,14 @@
         <v>28</v>
       </c>
     </row>
-    <row r="8" spans="1:8">
-      <c r="A8" s="29" t="s">
+    <row r="8" spans="1:6">
+      <c r="A8" s="2" t="s">
         <v>604</v>
       </c>
-      <c r="B8" s="8" t="s">
+      <c r="B8" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="C8" s="4" t="s">
+      <c r="C8" s="5" t="s">
         <v>30</v>
       </c>
       <c r="D8" s="5" t="s">
@@ -3436,14 +3358,14 @@
         <v>33</v>
       </c>
     </row>
-    <row r="9" spans="1:8" ht="30">
-      <c r="A9" s="29" t="s">
+    <row r="9" spans="1:6" ht="30">
+      <c r="A9" s="2" t="s">
         <v>605</v>
       </c>
-      <c r="B9" s="8" t="s">
+      <c r="B9" s="7" t="s">
         <v>34</v>
       </c>
-      <c r="C9" s="4" t="s">
+      <c r="C9" s="5" t="s">
         <v>35</v>
       </c>
       <c r="D9" s="5" t="s">
@@ -3456,14 +3378,14 @@
         <v>38</v>
       </c>
     </row>
-    <row r="10" spans="1:8">
-      <c r="A10" s="29" t="s">
+    <row r="10" spans="1:6">
+      <c r="A10" s="2" t="s">
         <v>606</v>
       </c>
-      <c r="B10" s="8" t="s">
+      <c r="B10" s="7" t="s">
         <v>39</v>
       </c>
-      <c r="C10" s="4" t="s">
+      <c r="C10" s="5" t="s">
         <v>40</v>
       </c>
       <c r="D10" s="5" t="s">
@@ -3476,14 +3398,14 @@
         <v>42</v>
       </c>
     </row>
-    <row r="11" spans="1:8">
-      <c r="A11" s="29" t="s">
+    <row r="11" spans="1:6">
+      <c r="A11" s="2" t="s">
         <v>607</v>
       </c>
-      <c r="B11" s="8" t="s">
+      <c r="B11" s="7" t="s">
         <v>43</v>
       </c>
-      <c r="C11" s="4" t="s">
+      <c r="C11" s="5" t="s">
         <v>44</v>
       </c>
       <c r="D11" s="5" t="s">
@@ -3496,14 +3418,14 @@
         <v>47</v>
       </c>
     </row>
-    <row r="12" spans="1:8">
-      <c r="A12" s="29" t="s">
+    <row r="12" spans="1:6">
+      <c r="A12" s="2" t="s">
         <v>608</v>
       </c>
-      <c r="B12" s="8" t="s">
+      <c r="B12" s="7" t="s">
         <v>48</v>
       </c>
-      <c r="C12" s="4" t="s">
+      <c r="C12" s="5" t="s">
         <v>49</v>
       </c>
       <c r="D12" s="5" t="s">
@@ -3516,14 +3438,14 @@
         <v>50</v>
       </c>
     </row>
-    <row r="13" spans="1:8">
-      <c r="A13" s="29" t="s">
+    <row r="13" spans="1:6">
+      <c r="A13" s="2" t="s">
         <v>609</v>
       </c>
-      <c r="B13" s="8" t="s">
+      <c r="B13" s="7" t="s">
         <v>52</v>
       </c>
-      <c r="C13" s="4" t="s">
+      <c r="C13" s="5" t="s">
         <v>53</v>
       </c>
       <c r="D13" s="5" t="s">
@@ -3536,14 +3458,14 @@
         <v>54</v>
       </c>
     </row>
-    <row r="14" spans="1:8" ht="32">
-      <c r="A14" s="29" t="s">
+    <row r="14" spans="1:6" ht="32">
+      <c r="A14" s="2" t="s">
         <v>610</v>
       </c>
-      <c r="B14" s="8" t="s">
+      <c r="B14" s="7" t="s">
         <v>56</v>
       </c>
-      <c r="C14" s="4" t="s">
+      <c r="C14" s="5" t="s">
         <v>57</v>
       </c>
       <c r="D14" s="5" t="s">
@@ -3556,14 +3478,14 @@
         <v>60</v>
       </c>
     </row>
-    <row r="15" spans="1:8">
-      <c r="A15" s="29" t="s">
+    <row r="15" spans="1:6">
+      <c r="A15" s="2" t="s">
         <v>611</v>
       </c>
-      <c r="B15" s="8" t="s">
+      <c r="B15" s="7" t="s">
         <v>61</v>
       </c>
-      <c r="C15" s="4" t="s">
+      <c r="C15" s="5" t="s">
         <v>62</v>
       </c>
       <c r="D15" s="5" t="s">
@@ -3576,14 +3498,14 @@
         <v>65</v>
       </c>
     </row>
-    <row r="16" spans="1:8">
-      <c r="A16" s="29" t="s">
+    <row r="16" spans="1:6">
+      <c r="A16" s="2" t="s">
         <v>612</v>
       </c>
-      <c r="B16" s="8" t="s">
+      <c r="B16" s="7" t="s">
         <v>66</v>
       </c>
-      <c r="C16" s="4" t="s">
+      <c r="C16" s="5" t="s">
         <v>67</v>
       </c>
       <c r="D16" s="5" t="s">
@@ -3597,13 +3519,13 @@
       </c>
     </row>
     <row r="17" spans="1:6">
-      <c r="A17" s="29" t="s">
+      <c r="A17" s="2" t="s">
         <v>613</v>
       </c>
-      <c r="B17" s="8" t="s">
+      <c r="B17" s="7" t="s">
         <v>71</v>
       </c>
-      <c r="C17" s="4" t="s">
+      <c r="C17" s="5" t="s">
         <v>72</v>
       </c>
       <c r="D17" s="5" t="s">
@@ -3617,13 +3539,13 @@
       </c>
     </row>
     <row r="18" spans="1:6">
-      <c r="A18" s="29" t="s">
+      <c r="A18" s="2" t="s">
         <v>614</v>
       </c>
-      <c r="B18" s="8" t="s">
+      <c r="B18" s="7" t="s">
         <v>75</v>
       </c>
-      <c r="C18" s="4" t="s">
+      <c r="C18" s="5" t="s">
         <v>76</v>
       </c>
       <c r="D18" s="5" t="s">
@@ -3637,13 +3559,13 @@
       </c>
     </row>
     <row r="19" spans="1:6">
-      <c r="A19" s="29" t="s">
+      <c r="A19" s="2" t="s">
         <v>615</v>
       </c>
-      <c r="B19" s="8" t="s">
+      <c r="B19" s="7" t="s">
         <v>79</v>
       </c>
-      <c r="C19" s="4" t="s">
+      <c r="C19" s="5" t="s">
         <v>80</v>
       </c>
       <c r="D19" s="5" t="s">
@@ -3657,13 +3579,13 @@
       </c>
     </row>
     <row r="20" spans="1:6">
-      <c r="A20" s="29" t="s">
+      <c r="A20" s="2" t="s">
         <v>616</v>
       </c>
-      <c r="B20" s="8" t="s">
+      <c r="B20" s="7" t="s">
         <v>84</v>
       </c>
-      <c r="C20" s="4" t="s">
+      <c r="C20" s="5" t="s">
         <v>85</v>
       </c>
       <c r="D20" s="5" t="s">
@@ -3677,13 +3599,13 @@
       </c>
     </row>
     <row r="21" spans="1:6">
-      <c r="A21" s="29" t="s">
+      <c r="A21" s="2" t="s">
         <v>617</v>
       </c>
-      <c r="B21" s="8" t="s">
+      <c r="B21" s="7" t="s">
         <v>89</v>
       </c>
-      <c r="C21" s="4" t="s">
+      <c r="C21" s="5" t="s">
         <v>90</v>
       </c>
       <c r="D21" s="5" t="s">
@@ -3697,13 +3619,13 @@
       </c>
     </row>
     <row r="22" spans="1:6">
-      <c r="A22" s="29" t="s">
+      <c r="A22" s="2" t="s">
         <v>618</v>
       </c>
-      <c r="B22" s="8" t="s">
+      <c r="B22" s="7" t="s">
         <v>94</v>
       </c>
-      <c r="C22" s="4" t="s">
+      <c r="C22" s="5" t="s">
         <v>95</v>
       </c>
       <c r="D22" s="5" t="s">
@@ -3717,13 +3639,13 @@
       </c>
     </row>
     <row r="23" spans="1:6">
-      <c r="A23" s="29" t="s">
+      <c r="A23" s="2" t="s">
         <v>619</v>
       </c>
-      <c r="B23" s="8" t="s">
+      <c r="B23" s="7" t="s">
         <v>98</v>
       </c>
-      <c r="C23" s="4" t="s">
+      <c r="C23" s="5" t="s">
         <v>99</v>
       </c>
       <c r="D23" s="5" t="s">
@@ -3737,13 +3659,13 @@
       </c>
     </row>
     <row r="24" spans="1:6">
-      <c r="A24" s="29" t="s">
+      <c r="A24" s="2" t="s">
         <v>620</v>
       </c>
-      <c r="B24" s="8" t="s">
+      <c r="B24" s="7" t="s">
         <v>48</v>
       </c>
-      <c r="C24" s="4" t="s">
+      <c r="C24" s="5" t="s">
         <v>49</v>
       </c>
       <c r="D24" s="5" t="s">
@@ -3757,13 +3679,13 @@
       </c>
     </row>
     <row r="25" spans="1:6">
-      <c r="A25" s="29" t="s">
+      <c r="A25" s="2" t="s">
         <v>621</v>
       </c>
-      <c r="B25" s="8" t="s">
+      <c r="B25" s="7" t="s">
         <v>102</v>
       </c>
-      <c r="C25" s="4" t="s">
+      <c r="C25" s="5" t="s">
         <v>103</v>
       </c>
       <c r="D25" s="5" t="s">
@@ -3777,13 +3699,13 @@
       </c>
     </row>
     <row r="26" spans="1:6" ht="32">
-      <c r="A26" s="29" t="s">
+      <c r="A26" s="2" t="s">
         <v>622</v>
       </c>
-      <c r="B26" s="8" t="s">
+      <c r="B26" s="7" t="s">
         <v>107</v>
       </c>
-      <c r="C26" s="4" t="s">
+      <c r="C26" s="5" t="s">
         <v>108</v>
       </c>
       <c r="D26" s="5" t="s">
@@ -3797,33 +3719,33 @@
       </c>
     </row>
     <row r="27" spans="1:6">
-      <c r="A27" s="29" t="s">
+      <c r="A27" s="2" t="s">
         <v>623</v>
       </c>
-      <c r="B27" s="10" t="s">
+      <c r="B27" s="7" t="s">
         <v>112</v>
       </c>
-      <c r="C27" s="11" t="s">
+      <c r="C27" s="5" t="s">
         <v>113</v>
       </c>
-      <c r="D27" s="11" t="s">
+      <c r="D27" s="5" t="s">
         <v>114</v>
       </c>
-      <c r="E27" s="11" t="s">
+      <c r="E27" s="5" t="s">
         <v>115</v>
       </c>
-      <c r="F27" s="11" t="s">
+      <c r="F27" s="5" t="s">
         <v>116</v>
       </c>
     </row>
     <row r="28" spans="1:6">
-      <c r="A28" s="29" t="s">
+      <c r="A28" s="2" t="s">
         <v>624</v>
       </c>
-      <c r="B28" s="8" t="s">
+      <c r="B28" s="7" t="s">
         <v>117</v>
       </c>
-      <c r="C28" s="4" t="s">
+      <c r="C28" s="5" t="s">
         <v>118</v>
       </c>
       <c r="D28" s="5" t="s">
@@ -3837,13 +3759,13 @@
       </c>
     </row>
     <row r="29" spans="1:6">
-      <c r="A29" s="29" t="s">
+      <c r="A29" s="2" t="s">
         <v>625</v>
       </c>
-      <c r="B29" s="8" t="s">
+      <c r="B29" s="7" t="s">
         <v>122</v>
       </c>
-      <c r="C29" s="4" t="s">
+      <c r="C29" s="5" t="s">
         <v>123</v>
       </c>
       <c r="D29" s="5" t="s">
@@ -3857,13 +3779,13 @@
       </c>
     </row>
     <row r="30" spans="1:6">
-      <c r="A30" s="29" t="s">
+      <c r="A30" s="2" t="s">
         <v>626</v>
       </c>
-      <c r="B30" s="8" t="s">
+      <c r="B30" s="7" t="s">
         <v>127</v>
       </c>
-      <c r="C30" s="4" t="s">
+      <c r="C30" s="5" t="s">
         <v>128</v>
       </c>
       <c r="D30" s="5" t="s">
@@ -3877,13 +3799,13 @@
       </c>
     </row>
     <row r="31" spans="1:6">
-      <c r="A31" s="29" t="s">
+      <c r="A31" s="2" t="s">
         <v>627</v>
       </c>
-      <c r="B31" s="8" t="s">
+      <c r="B31" s="7" t="s">
         <v>132</v>
       </c>
-      <c r="C31" s="4" t="s">
+      <c r="C31" s="5" t="s">
         <v>133</v>
       </c>
       <c r="D31" s="5" t="s">
@@ -3897,13 +3819,13 @@
       </c>
     </row>
     <row r="32" spans="1:6">
-      <c r="A32" s="29" t="s">
+      <c r="A32" s="2" t="s">
         <v>628</v>
       </c>
-      <c r="B32" s="8" t="s">
+      <c r="B32" s="7" t="s">
         <v>137</v>
       </c>
-      <c r="C32" s="8" t="s">
+      <c r="C32" s="7" t="s">
         <v>138</v>
       </c>
       <c r="D32" s="5" t="s">
@@ -3917,93 +3839,93 @@
       </c>
     </row>
     <row r="33" spans="1:6">
-      <c r="A33" s="29" t="s">
+      <c r="A33" s="2" t="s">
         <v>629</v>
       </c>
-      <c r="B33" s="12" t="s">
+      <c r="B33" s="7" t="s">
         <v>142</v>
       </c>
-      <c r="C33" s="8" t="s">
+      <c r="C33" s="7" t="s">
         <v>142</v>
       </c>
-      <c r="D33" s="8" t="s">
+      <c r="D33" s="7" t="s">
         <v>142</v>
       </c>
-      <c r="E33" s="8" t="s">
+      <c r="E33" s="7" t="s">
         <v>142</v>
       </c>
-      <c r="F33" s="13" t="s">
+      <c r="F33" s="8" t="s">
         <v>142</v>
       </c>
     </row>
     <row r="34" spans="1:6">
-      <c r="A34" s="29" t="s">
+      <c r="A34" s="2" t="s">
         <v>630</v>
       </c>
-      <c r="B34" s="12" t="s">
+      <c r="B34" s="7" t="s">
         <v>143</v>
       </c>
-      <c r="C34" s="8" t="s">
+      <c r="C34" s="7" t="s">
         <v>143</v>
       </c>
-      <c r="D34" s="8" t="s">
+      <c r="D34" s="7" t="s">
         <v>143</v>
       </c>
-      <c r="E34" s="8" t="s">
+      <c r="E34" s="7" t="s">
         <v>143</v>
       </c>
-      <c r="F34" s="13" t="s">
+      <c r="F34" s="8" t="s">
         <v>143</v>
       </c>
     </row>
     <row r="35" spans="1:6">
-      <c r="A35" s="29" t="s">
+      <c r="A35" s="2" t="s">
         <v>144</v>
       </c>
-      <c r="B35" s="12" t="s">
+      <c r="B35" s="7" t="s">
         <v>144</v>
       </c>
-      <c r="C35" s="8" t="s">
+      <c r="C35" s="7" t="s">
         <v>144</v>
       </c>
-      <c r="D35" s="8" t="s">
+      <c r="D35" s="7" t="s">
         <v>144</v>
       </c>
-      <c r="E35" s="8" t="s">
+      <c r="E35" s="7" t="s">
         <v>144</v>
       </c>
-      <c r="F35" s="13" t="s">
+      <c r="F35" s="8" t="s">
         <v>144</v>
       </c>
     </row>
     <row r="36" spans="1:6">
-      <c r="A36" s="29" t="s">
+      <c r="A36" s="2" t="s">
         <v>145</v>
       </c>
-      <c r="B36" s="12" t="s">
+      <c r="B36" s="7" t="s">
         <v>145</v>
       </c>
-      <c r="C36" s="8" t="s">
+      <c r="C36" s="7" t="s">
         <v>145</v>
       </c>
-      <c r="D36" s="8" t="s">
+      <c r="D36" s="7" t="s">
         <v>145</v>
       </c>
-      <c r="E36" s="8" t="s">
+      <c r="E36" s="7" t="s">
         <v>145</v>
       </c>
-      <c r="F36" s="13" t="s">
+      <c r="F36" s="8" t="s">
         <v>145</v>
       </c>
     </row>
     <row r="37" spans="1:6">
-      <c r="A37" s="29" t="s">
+      <c r="A37" s="2" t="s">
         <v>631</v>
       </c>
-      <c r="B37" s="8" t="s">
+      <c r="B37" s="7" t="s">
         <v>146</v>
       </c>
-      <c r="C37" s="4" t="s">
+      <c r="C37" s="5" t="s">
         <v>147</v>
       </c>
       <c r="D37" s="5" t="s">
@@ -4017,13 +3939,13 @@
       </c>
     </row>
     <row r="38" spans="1:6">
-      <c r="A38" s="29" t="s">
+      <c r="A38" s="2" t="s">
         <v>632</v>
       </c>
-      <c r="B38" s="8" t="s">
+      <c r="B38" s="7" t="s">
         <v>151</v>
       </c>
-      <c r="C38" s="4" t="s">
+      <c r="C38" s="5" t="s">
         <v>152</v>
       </c>
       <c r="D38" s="5" t="s">
@@ -4037,13 +3959,13 @@
       </c>
     </row>
     <row r="39" spans="1:6">
-      <c r="A39" s="29" t="s">
+      <c r="A39" s="2" t="s">
         <v>633</v>
       </c>
-      <c r="B39" s="8" t="s">
+      <c r="B39" s="7" t="s">
         <v>156</v>
       </c>
-      <c r="C39" s="4" t="s">
+      <c r="C39" s="5" t="s">
         <v>156</v>
       </c>
       <c r="D39" s="5" t="s">
@@ -4057,13 +3979,13 @@
       </c>
     </row>
     <row r="40" spans="1:6">
-      <c r="A40" s="29" t="s">
+      <c r="A40" s="2" t="s">
         <v>634</v>
       </c>
-      <c r="B40" s="8" t="s">
+      <c r="B40" s="7" t="s">
         <v>160</v>
       </c>
-      <c r="C40" s="4" t="s">
+      <c r="C40" s="5" t="s">
         <v>161</v>
       </c>
       <c r="D40" s="5" t="s">
@@ -4077,13 +3999,13 @@
       </c>
     </row>
     <row r="41" spans="1:6">
-      <c r="A41" s="29" t="s">
+      <c r="A41" s="2" t="s">
         <v>635</v>
       </c>
-      <c r="B41" s="8" t="s">
+      <c r="B41" s="7" t="s">
         <v>165</v>
       </c>
-      <c r="C41" s="4" t="s">
+      <c r="C41" s="5" t="s">
         <v>166</v>
       </c>
       <c r="D41" s="5" t="s">
@@ -4097,13 +4019,13 @@
       </c>
     </row>
     <row r="42" spans="1:6" ht="32">
-      <c r="A42" s="29" t="s">
+      <c r="A42" s="2" t="s">
         <v>636</v>
       </c>
-      <c r="B42" s="8" t="s">
+      <c r="B42" s="7" t="s">
         <v>170</v>
       </c>
-      <c r="C42" s="4" t="s">
+      <c r="C42" s="5" t="s">
         <v>171</v>
       </c>
       <c r="D42" s="5" t="s">
@@ -4117,13 +4039,13 @@
       </c>
     </row>
     <row r="43" spans="1:6">
-      <c r="A43" s="29" t="s">
+      <c r="A43" s="2" t="s">
         <v>637</v>
       </c>
-      <c r="B43" s="8" t="s">
+      <c r="B43" s="7" t="s">
         <v>175</v>
       </c>
-      <c r="C43" s="4" t="s">
+      <c r="C43" s="5" t="s">
         <v>176</v>
       </c>
       <c r="D43" s="5" t="s">
@@ -4137,13 +4059,13 @@
       </c>
     </row>
     <row r="44" spans="1:6">
-      <c r="A44" s="29" t="s">
+      <c r="A44" s="2" t="s">
         <v>638</v>
       </c>
-      <c r="B44" s="8" t="s">
+      <c r="B44" s="7" t="s">
         <v>178</v>
       </c>
-      <c r="C44" s="4" t="s">
+      <c r="C44" s="5" t="s">
         <v>179</v>
       </c>
       <c r="D44" s="5" t="s">
@@ -4157,13 +4079,13 @@
       </c>
     </row>
     <row r="45" spans="1:6">
-      <c r="A45" s="29" t="s">
+      <c r="A45" s="2" t="s">
         <v>639</v>
       </c>
-      <c r="B45" s="8" t="s">
+      <c r="B45" s="7" t="s">
         <v>183</v>
       </c>
-      <c r="C45" s="4" t="s">
+      <c r="C45" s="5" t="s">
         <v>183</v>
       </c>
       <c r="D45" s="5" t="s">
@@ -4177,13 +4099,13 @@
       </c>
     </row>
     <row r="46" spans="1:6" ht="32">
-      <c r="A46" s="29" t="s">
+      <c r="A46" s="2" t="s">
         <v>640</v>
       </c>
-      <c r="B46" s="8" t="s">
+      <c r="B46" s="7" t="s">
         <v>187</v>
       </c>
-      <c r="C46" s="4" t="s">
+      <c r="C46" s="5" t="s">
         <v>188</v>
       </c>
       <c r="D46" s="5" t="s">
@@ -4197,13 +4119,13 @@
       </c>
     </row>
     <row r="47" spans="1:6">
-      <c r="A47" s="29" t="s">
+      <c r="A47" s="2" t="s">
         <v>641</v>
       </c>
-      <c r="B47" s="8" t="s">
+      <c r="B47" s="7" t="s">
         <v>192</v>
       </c>
-      <c r="C47" s="4" t="s">
+      <c r="C47" s="5" t="s">
         <v>192</v>
       </c>
       <c r="D47" s="5" t="s">
@@ -4217,13 +4139,13 @@
       </c>
     </row>
     <row r="48" spans="1:6">
-      <c r="A48" s="29" t="s">
+      <c r="A48" s="2" t="s">
         <v>642</v>
       </c>
-      <c r="B48" s="8" t="s">
+      <c r="B48" s="7" t="s">
         <v>196</v>
       </c>
-      <c r="C48" s="4" t="s">
+      <c r="C48" s="5" t="s">
         <v>196</v>
       </c>
       <c r="D48" s="5" t="s">
@@ -4237,13 +4159,13 @@
       </c>
     </row>
     <row r="49" spans="1:6">
-      <c r="A49" s="29" t="s">
+      <c r="A49" s="2" t="s">
         <v>643</v>
       </c>
-      <c r="B49" s="8" t="s">
+      <c r="B49" s="7" t="s">
         <v>197</v>
       </c>
-      <c r="C49" s="4" t="s">
+      <c r="C49" s="5" t="s">
         <v>198</v>
       </c>
       <c r="D49" s="5" t="s">
@@ -4257,13 +4179,13 @@
       </c>
     </row>
     <row r="50" spans="1:6">
-      <c r="A50" s="29" t="s">
+      <c r="A50" s="2" t="s">
         <v>644</v>
       </c>
-      <c r="B50" s="8" t="s">
+      <c r="B50" s="7" t="s">
         <v>201</v>
       </c>
-      <c r="C50" s="4" t="s">
+      <c r="C50" s="5" t="s">
         <v>202</v>
       </c>
       <c r="D50" s="5" t="s">
@@ -4277,13 +4199,13 @@
       </c>
     </row>
     <row r="51" spans="1:6" ht="32">
-      <c r="A51" s="29" t="s">
+      <c r="A51" s="2" t="s">
         <v>645</v>
       </c>
-      <c r="B51" s="8" t="s">
+      <c r="B51" s="7" t="s">
         <v>205</v>
       </c>
-      <c r="C51" s="4" t="s">
+      <c r="C51" s="5" t="s">
         <v>206</v>
       </c>
       <c r="D51" s="5" t="s">
@@ -4297,13 +4219,13 @@
       </c>
     </row>
     <row r="52" spans="1:6">
-      <c r="A52" s="29" t="s">
+      <c r="A52" s="2" t="s">
         <v>646</v>
       </c>
-      <c r="B52" s="8" t="s">
+      <c r="B52" s="7" t="s">
         <v>592</v>
       </c>
-      <c r="C52" s="4" t="s">
+      <c r="C52" s="5" t="s">
         <v>210</v>
       </c>
       <c r="D52" s="5" t="s">
@@ -4317,13 +4239,13 @@
       </c>
     </row>
     <row r="53" spans="1:6">
-      <c r="A53" s="29" t="s">
+      <c r="A53" s="2" t="s">
         <v>647</v>
       </c>
-      <c r="B53" s="8" t="s">
+      <c r="B53" s="7" t="s">
         <v>214</v>
       </c>
-      <c r="C53" s="4" t="s">
+      <c r="C53" s="5" t="s">
         <v>215</v>
       </c>
       <c r="D53" s="5" t="s">
@@ -4337,13 +4259,13 @@
       </c>
     </row>
     <row r="54" spans="1:6" ht="45">
-      <c r="A54" s="29" t="s">
+      <c r="A54" s="2" t="s">
         <v>648</v>
       </c>
-      <c r="B54" s="8" t="s">
+      <c r="B54" s="7" t="s">
         <v>219</v>
       </c>
-      <c r="C54" s="4" t="s">
+      <c r="C54" s="5" t="s">
         <v>220</v>
       </c>
       <c r="D54" s="5" t="s">
@@ -4357,13 +4279,13 @@
       </c>
     </row>
     <row r="55" spans="1:6">
-      <c r="A55" s="29" t="s">
+      <c r="A55" s="2" t="s">
         <v>649</v>
       </c>
-      <c r="B55" s="8" t="s">
+      <c r="B55" s="7" t="s">
         <v>224</v>
       </c>
-      <c r="C55" s="4" t="s">
+      <c r="C55" s="5" t="s">
         <v>225</v>
       </c>
       <c r="D55" s="5" t="s">
@@ -4377,13 +4299,13 @@
       </c>
     </row>
     <row r="56" spans="1:6">
-      <c r="A56" s="29" t="s">
+      <c r="A56" s="2" t="s">
         <v>650</v>
       </c>
-      <c r="B56" s="8" t="s">
+      <c r="B56" s="7" t="s">
         <v>228</v>
       </c>
-      <c r="C56" s="4" t="s">
+      <c r="C56" s="5" t="s">
         <v>229</v>
       </c>
       <c r="D56" s="5" t="s">
@@ -4397,13 +4319,13 @@
       </c>
     </row>
     <row r="57" spans="1:6">
-      <c r="A57" s="29" t="s">
+      <c r="A57" s="2" t="s">
         <v>651</v>
       </c>
-      <c r="B57" s="8" t="s">
+      <c r="B57" s="7" t="s">
         <v>233</v>
       </c>
-      <c r="C57" s="4" t="s">
+      <c r="C57" s="5" t="s">
         <v>234</v>
       </c>
       <c r="D57" s="5" t="s">
@@ -4417,33 +4339,33 @@
       </c>
     </row>
     <row r="58" spans="1:6">
-      <c r="A58" s="29" t="s">
+      <c r="A58" s="2" t="s">
         <v>652</v>
       </c>
-      <c r="B58" s="12" t="s">
+      <c r="B58" s="7" t="s">
         <v>238</v>
       </c>
-      <c r="C58" s="11" t="s">
+      <c r="C58" s="5" t="s">
         <v>239</v>
       </c>
-      <c r="D58" s="11" t="s">
+      <c r="D58" s="5" t="s">
         <v>240</v>
       </c>
-      <c r="E58" s="11" t="s">
+      <c r="E58" s="5" t="s">
         <v>241</v>
       </c>
-      <c r="F58" s="11" t="s">
+      <c r="F58" s="5" t="s">
         <v>242</v>
       </c>
     </row>
     <row r="59" spans="1:6">
-      <c r="A59" s="29" t="s">
+      <c r="A59" s="2" t="s">
         <v>653</v>
       </c>
-      <c r="B59" s="8" t="s">
+      <c r="B59" s="7" t="s">
         <v>243</v>
       </c>
-      <c r="C59" s="4" t="s">
+      <c r="C59" s="5" t="s">
         <v>244</v>
       </c>
       <c r="D59" s="5" t="s">
@@ -4457,13 +4379,13 @@
       </c>
     </row>
     <row r="60" spans="1:6">
-      <c r="A60" s="29" t="s">
+      <c r="A60" s="2" t="s">
         <v>654</v>
       </c>
-      <c r="B60" s="8" t="s">
+      <c r="B60" s="7" t="s">
         <v>248</v>
       </c>
-      <c r="C60" s="4" t="s">
+      <c r="C60" s="5" t="s">
         <v>249</v>
       </c>
       <c r="D60" s="5" t="s">
@@ -4477,13 +4399,13 @@
       </c>
     </row>
     <row r="61" spans="1:6" ht="32">
-      <c r="A61" s="29" t="s">
+      <c r="A61" s="2" t="s">
         <v>655</v>
       </c>
-      <c r="B61" s="8" t="s">
+      <c r="B61" s="7" t="s">
         <v>253</v>
       </c>
-      <c r="C61" s="4" t="s">
+      <c r="C61" s="5" t="s">
         <v>254</v>
       </c>
       <c r="D61" s="5" t="s">
@@ -4497,13 +4419,13 @@
       </c>
     </row>
     <row r="62" spans="1:6" ht="32">
-      <c r="A62" s="29" t="s">
+      <c r="A62" s="2" t="s">
         <v>656</v>
       </c>
-      <c r="B62" s="8" t="s">
+      <c r="B62" s="7" t="s">
         <v>258</v>
       </c>
-      <c r="C62" s="4" t="s">
+      <c r="C62" s="5" t="s">
         <v>259</v>
       </c>
       <c r="D62" s="5" t="s">
@@ -4517,13 +4439,13 @@
       </c>
     </row>
     <row r="63" spans="1:6">
-      <c r="A63" s="29" t="s">
+      <c r="A63" s="2" t="s">
         <v>657</v>
       </c>
-      <c r="B63" s="8" t="s">
+      <c r="B63" s="7" t="s">
         <v>263</v>
       </c>
-      <c r="C63" s="4" t="s">
+      <c r="C63" s="5" t="s">
         <v>264</v>
       </c>
       <c r="D63" s="5" t="s">
@@ -4537,13 +4459,13 @@
       </c>
     </row>
     <row r="64" spans="1:6">
-      <c r="A64" s="29" t="s">
+      <c r="A64" s="2" t="s">
         <v>658</v>
       </c>
-      <c r="B64" s="8" t="s">
+      <c r="B64" s="7" t="s">
         <v>267</v>
       </c>
-      <c r="C64" s="4" t="s">
+      <c r="C64" s="5" t="s">
         <v>268</v>
       </c>
       <c r="D64" s="5" t="s">
@@ -4557,13 +4479,13 @@
       </c>
     </row>
     <row r="65" spans="1:6">
-      <c r="A65" s="29" t="s">
+      <c r="A65" s="2" t="s">
         <v>659</v>
       </c>
-      <c r="B65" s="8" t="s">
+      <c r="B65" s="7" t="s">
         <v>272</v>
       </c>
-      <c r="C65" s="4" t="s">
+      <c r="C65" s="5" t="s">
         <v>273</v>
       </c>
       <c r="D65" s="5" t="s">
@@ -4577,13 +4499,13 @@
       </c>
     </row>
     <row r="66" spans="1:6">
-      <c r="A66" s="29" t="s">
+      <c r="A66" s="2" t="s">
         <v>660</v>
       </c>
-      <c r="B66" s="8" t="s">
+      <c r="B66" s="7" t="s">
         <v>277</v>
       </c>
-      <c r="C66" s="4" t="s">
+      <c r="C66" s="5" t="s">
         <v>278</v>
       </c>
       <c r="D66" s="5" t="s">
@@ -4597,13 +4519,13 @@
       </c>
     </row>
     <row r="67" spans="1:6">
-      <c r="A67" s="29" t="s">
+      <c r="A67" s="2" t="s">
         <v>661</v>
       </c>
-      <c r="B67" s="8" t="s">
+      <c r="B67" s="7" t="s">
         <v>282</v>
       </c>
-      <c r="C67" s="4" t="s">
+      <c r="C67" s="5" t="s">
         <v>283</v>
       </c>
       <c r="D67" s="5" t="s">
@@ -4617,13 +4539,13 @@
       </c>
     </row>
     <row r="68" spans="1:6">
-      <c r="A68" s="29" t="s">
+      <c r="A68" s="2" t="s">
         <v>662</v>
       </c>
-      <c r="B68" s="8" t="s">
+      <c r="B68" s="7" t="s">
         <v>287</v>
       </c>
-      <c r="C68" s="4" t="s">
+      <c r="C68" s="5" t="s">
         <v>288</v>
       </c>
       <c r="D68" s="5" t="s">
@@ -4637,13 +4559,13 @@
       </c>
     </row>
     <row r="69" spans="1:6" ht="32">
-      <c r="A69" s="29" t="s">
+      <c r="A69" s="2" t="s">
         <v>663</v>
       </c>
-      <c r="B69" s="8" t="s">
+      <c r="B69" s="7" t="s">
         <v>292</v>
       </c>
-      <c r="C69" s="4" t="s">
+      <c r="C69" s="5" t="s">
         <v>293</v>
       </c>
       <c r="D69" s="5" t="s">
@@ -4657,13 +4579,13 @@
       </c>
     </row>
     <row r="70" spans="1:6">
-      <c r="A70" s="29" t="s">
+      <c r="A70" s="2" t="s">
         <v>664</v>
       </c>
-      <c r="B70" s="8" t="s">
+      <c r="B70" s="7" t="s">
         <v>297</v>
       </c>
-      <c r="C70" s="4" t="s">
+      <c r="C70" s="5" t="s">
         <v>298</v>
       </c>
       <c r="D70" s="5" t="s">
@@ -4677,13 +4599,13 @@
       </c>
     </row>
     <row r="71" spans="1:6">
-      <c r="A71" s="29" t="s">
+      <c r="A71" s="2" t="s">
         <v>665</v>
       </c>
-      <c r="B71" s="8" t="s">
+      <c r="B71" s="7" t="s">
         <v>302</v>
       </c>
-      <c r="C71" s="4" t="s">
+      <c r="C71" s="5" t="s">
         <v>303</v>
       </c>
       <c r="D71" s="5" t="s">
@@ -4697,13 +4619,13 @@
       </c>
     </row>
     <row r="72" spans="1:6">
-      <c r="A72" s="29" t="s">
+      <c r="A72" s="2" t="s">
         <v>666</v>
       </c>
-      <c r="B72" s="8" t="s">
+      <c r="B72" s="7" t="s">
         <v>306</v>
       </c>
-      <c r="C72" s="4" t="s">
+      <c r="C72" s="5" t="s">
         <v>307</v>
       </c>
       <c r="D72" s="5" t="s">
@@ -4717,13 +4639,13 @@
       </c>
     </row>
     <row r="73" spans="1:6">
-      <c r="A73" s="29" t="s">
+      <c r="A73" s="2" t="s">
         <v>667</v>
       </c>
-      <c r="B73" s="8" t="s">
+      <c r="B73" s="7" t="s">
         <v>311</v>
       </c>
-      <c r="C73" s="4" t="s">
+      <c r="C73" s="5" t="s">
         <v>312</v>
       </c>
       <c r="D73" s="5" t="s">
@@ -4737,13 +4659,13 @@
       </c>
     </row>
     <row r="74" spans="1:6">
-      <c r="A74" s="29" t="s">
+      <c r="A74" s="2" t="s">
         <v>668</v>
       </c>
-      <c r="B74" s="8" t="s">
+      <c r="B74" s="7" t="s">
         <v>314</v>
       </c>
-      <c r="C74" s="4" t="s">
+      <c r="C74" s="5" t="s">
         <v>314</v>
       </c>
       <c r="D74" s="5" t="s">
@@ -4757,13 +4679,13 @@
       </c>
     </row>
     <row r="75" spans="1:6">
-      <c r="A75" s="29" t="s">
+      <c r="A75" s="2" t="s">
         <v>669</v>
       </c>
-      <c r="B75" s="8" t="s">
+      <c r="B75" s="7" t="s">
         <v>318</v>
       </c>
-      <c r="C75" s="4" t="s">
+      <c r="C75" s="5" t="s">
         <v>319</v>
       </c>
       <c r="D75" s="5" t="s">
@@ -4777,13 +4699,13 @@
       </c>
     </row>
     <row r="76" spans="1:6">
-      <c r="A76" s="29" t="s">
+      <c r="A76" s="2" t="s">
         <v>670</v>
       </c>
-      <c r="B76" s="8" t="s">
+      <c r="B76" s="7" t="s">
         <v>323</v>
       </c>
-      <c r="C76" s="4" t="s">
+      <c r="C76" s="5" t="s">
         <v>324</v>
       </c>
       <c r="D76" s="5" t="s">
@@ -4797,13 +4719,13 @@
       </c>
     </row>
     <row r="77" spans="1:6" ht="32">
-      <c r="A77" s="29" t="s">
+      <c r="A77" s="2" t="s">
         <v>671</v>
       </c>
-      <c r="B77" s="8" t="s">
+      <c r="B77" s="7" t="s">
         <v>327</v>
       </c>
-      <c r="C77" s="4" t="s">
+      <c r="C77" s="5" t="s">
         <v>328</v>
       </c>
       <c r="D77" s="5" t="s">
@@ -4817,13 +4739,13 @@
       </c>
     </row>
     <row r="78" spans="1:6">
-      <c r="A78" s="29" t="s">
+      <c r="A78" s="2" t="s">
         <v>672</v>
       </c>
-      <c r="B78" s="8" t="s">
+      <c r="B78" s="7" t="s">
         <v>332</v>
       </c>
-      <c r="C78" s="4" t="s">
+      <c r="C78" s="5" t="s">
         <v>332</v>
       </c>
       <c r="D78" s="5" t="s">
@@ -4837,10 +4759,10 @@
       </c>
     </row>
     <row r="79" spans="1:6">
-      <c r="A79" s="29" t="s">
+      <c r="A79" s="2" t="s">
         <v>673</v>
       </c>
-      <c r="B79" s="14" t="s">
+      <c r="B79" s="7" t="s">
         <v>335</v>
       </c>
       <c r="C79" s="5" t="s">
@@ -4857,10 +4779,10 @@
       </c>
     </row>
     <row r="80" spans="1:6" ht="32">
-      <c r="A80" s="29" t="s">
+      <c r="A80" s="2" t="s">
         <v>674</v>
       </c>
-      <c r="B80" s="14" t="s">
+      <c r="B80" s="7" t="s">
         <v>340</v>
       </c>
       <c r="C80" s="5" t="s">
@@ -4877,13 +4799,13 @@
       </c>
     </row>
     <row r="81" spans="1:6">
-      <c r="A81" s="29" t="s">
+      <c r="A81" s="2" t="s">
         <v>675</v>
       </c>
-      <c r="B81" s="8" t="s">
+      <c r="B81" s="7" t="s">
         <v>345</v>
       </c>
-      <c r="C81" s="4" t="s">
+      <c r="C81" s="5" t="s">
         <v>345</v>
       </c>
       <c r="D81" s="5" t="s">
@@ -4897,33 +4819,33 @@
       </c>
     </row>
     <row r="82" spans="1:6" ht="32">
-      <c r="A82" s="29" t="s">
+      <c r="A82" s="2" t="s">
         <v>676</v>
       </c>
-      <c r="B82" s="15" t="s">
+      <c r="B82" s="9" t="s">
         <v>349</v>
       </c>
-      <c r="C82" s="15" t="s">
+      <c r="C82" s="9" t="s">
         <v>350</v>
       </c>
-      <c r="D82" s="15" t="s">
+      <c r="D82" s="9" t="s">
         <v>351</v>
       </c>
-      <c r="E82" s="15" t="s">
+      <c r="E82" s="9" t="s">
         <v>352</v>
       </c>
-      <c r="F82" s="15" t="s">
+      <c r="F82" s="9" t="s">
         <v>353</v>
       </c>
     </row>
     <row r="83" spans="1:6">
-      <c r="A83" s="29" t="s">
+      <c r="A83" s="2" t="s">
         <v>677</v>
       </c>
-      <c r="B83" s="8" t="s">
+      <c r="B83" s="7" t="s">
         <v>354</v>
       </c>
-      <c r="C83" s="4" t="s">
+      <c r="C83" s="5" t="s">
         <v>147</v>
       </c>
       <c r="D83" s="5" t="s">
@@ -4937,13 +4859,13 @@
       </c>
     </row>
     <row r="84" spans="1:6">
-      <c r="A84" s="29" t="s">
+      <c r="A84" s="2" t="s">
         <v>678</v>
       </c>
-      <c r="B84" s="8" t="s">
+      <c r="B84" s="7" t="s">
         <v>355</v>
       </c>
-      <c r="C84" s="4" t="s">
+      <c r="C84" s="5" t="s">
         <v>356</v>
       </c>
       <c r="D84" s="5" t="s">
@@ -4957,13 +4879,13 @@
       </c>
     </row>
     <row r="85" spans="1:6" ht="32">
-      <c r="A85" s="29" t="s">
+      <c r="A85" s="2" t="s">
         <v>679</v>
       </c>
-      <c r="B85" s="14" t="s">
+      <c r="B85" s="7" t="s">
         <v>360</v>
       </c>
-      <c r="C85" s="16" t="s">
+      <c r="C85" s="8" t="s">
         <v>360</v>
       </c>
       <c r="D85" s="5" t="s">
@@ -4977,13 +4899,13 @@
       </c>
     </row>
     <row r="86" spans="1:6" ht="32">
-      <c r="A86" s="29" t="s">
+      <c r="A86" s="2" t="s">
         <v>680</v>
       </c>
-      <c r="B86" s="14" t="s">
+      <c r="B86" s="7" t="s">
         <v>364</v>
       </c>
-      <c r="C86" s="16" t="s">
+      <c r="C86" s="8" t="s">
         <v>364</v>
       </c>
       <c r="D86" s="5" t="s">
@@ -4997,13 +4919,13 @@
       </c>
     </row>
     <row r="87" spans="1:6">
-      <c r="A87" s="29" t="s">
+      <c r="A87" s="2" t="s">
         <v>681</v>
       </c>
-      <c r="B87" s="14" t="s">
+      <c r="B87" s="7" t="s">
         <v>368</v>
       </c>
-      <c r="C87" s="16" t="s">
+      <c r="C87" s="8" t="s">
         <v>368</v>
       </c>
       <c r="D87" s="5" t="s">
@@ -5017,13 +4939,13 @@
       </c>
     </row>
     <row r="88" spans="1:6">
-      <c r="A88" s="29" t="s">
+      <c r="A88" s="2" t="s">
         <v>682</v>
       </c>
-      <c r="B88" s="8" t="s">
+      <c r="B88" s="7" t="s">
         <v>372</v>
       </c>
-      <c r="C88" s="4" t="s">
+      <c r="C88" s="5" t="s">
         <v>372</v>
       </c>
       <c r="D88" s="5" t="s">
@@ -5037,13 +4959,13 @@
       </c>
     </row>
     <row r="89" spans="1:6">
-      <c r="A89" s="29" t="s">
+      <c r="A89" s="2" t="s">
         <v>683</v>
       </c>
-      <c r="B89" s="8" t="s">
+      <c r="B89" s="7" t="s">
         <v>376</v>
       </c>
-      <c r="C89" s="4" t="s">
+      <c r="C89" s="5" t="s">
         <v>376</v>
       </c>
       <c r="D89" s="5" t="s">
@@ -5057,33 +4979,33 @@
       </c>
     </row>
     <row r="90" spans="1:6" ht="32">
-      <c r="A90" s="29" t="s">
+      <c r="A90" s="2" t="s">
         <v>684</v>
       </c>
-      <c r="B90" s="17" t="s">
+      <c r="B90" s="9" t="s">
         <v>380</v>
       </c>
-      <c r="C90" s="17" t="s">
+      <c r="C90" s="9" t="s">
         <v>381</v>
       </c>
-      <c r="D90" s="15" t="s">
+      <c r="D90" s="9" t="s">
         <v>382</v>
       </c>
-      <c r="E90" s="15" t="s">
+      <c r="E90" s="9" t="s">
         <v>383</v>
       </c>
-      <c r="F90" s="15" t="s">
+      <c r="F90" s="9" t="s">
         <v>384</v>
       </c>
     </row>
     <row r="91" spans="1:6" ht="32">
-      <c r="A91" s="29" t="s">
+      <c r="A91" s="2" t="s">
         <v>685</v>
       </c>
-      <c r="B91" s="8" t="s">
+      <c r="B91" s="7" t="s">
         <v>385</v>
       </c>
-      <c r="C91" s="4" t="s">
+      <c r="C91" s="5" t="s">
         <v>386</v>
       </c>
       <c r="D91" s="5" t="s">
@@ -5097,13 +5019,13 @@
       </c>
     </row>
     <row r="92" spans="1:6">
-      <c r="A92" s="29" t="s">
+      <c r="A92" s="2" t="s">
         <v>686</v>
       </c>
-      <c r="B92" s="8" t="s">
+      <c r="B92" s="7" t="s">
         <v>390</v>
       </c>
-      <c r="C92" s="4" t="s">
+      <c r="C92" s="5" t="s">
         <v>390</v>
       </c>
       <c r="D92" s="5" t="s">
@@ -5117,13 +5039,13 @@
       </c>
     </row>
     <row r="93" spans="1:6">
-      <c r="A93" s="29" t="s">
+      <c r="A93" s="2" t="s">
         <v>687</v>
       </c>
-      <c r="B93" s="8" t="s">
+      <c r="B93" s="7" t="s">
         <v>394</v>
       </c>
-      <c r="C93" s="4" t="s">
+      <c r="C93" s="5" t="s">
         <v>395</v>
       </c>
       <c r="D93" s="5" t="s">
@@ -5137,13 +5059,13 @@
       </c>
     </row>
     <row r="94" spans="1:6">
-      <c r="A94" s="29" t="s">
+      <c r="A94" s="2" t="s">
         <v>688</v>
       </c>
-      <c r="B94" s="8" t="s">
+      <c r="B94" s="7" t="s">
         <v>399</v>
       </c>
-      <c r="C94" s="4" t="s">
+      <c r="C94" s="5" t="s">
         <v>400</v>
       </c>
       <c r="D94" s="5" t="s">
@@ -5157,13 +5079,13 @@
       </c>
     </row>
     <row r="95" spans="1:6">
-      <c r="A95" s="29" t="s">
+      <c r="A95" s="2" t="s">
         <v>689</v>
       </c>
-      <c r="B95" s="8" t="s">
+      <c r="B95" s="7" t="s">
         <v>404</v>
       </c>
-      <c r="C95" s="4" t="s">
+      <c r="C95" s="5" t="s">
         <v>405</v>
       </c>
       <c r="D95" s="5" t="s">
@@ -5177,13 +5099,13 @@
       </c>
     </row>
     <row r="96" spans="1:6">
-      <c r="A96" s="29" t="s">
+      <c r="A96" s="2" t="s">
         <v>690</v>
       </c>
-      <c r="B96" s="8" t="s">
+      <c r="B96" s="7" t="s">
         <v>409</v>
       </c>
-      <c r="C96" s="4" t="s">
+      <c r="C96" s="5" t="s">
         <v>410</v>
       </c>
       <c r="D96" s="5" t="s">
@@ -5197,13 +5119,13 @@
       </c>
     </row>
     <row r="97" spans="1:6">
-      <c r="A97" s="29" t="s">
+      <c r="A97" s="2" t="s">
         <v>691</v>
       </c>
-      <c r="B97" s="14" t="s">
+      <c r="B97" s="7" t="s">
         <v>414</v>
       </c>
-      <c r="C97" s="4" t="s">
+      <c r="C97" s="5" t="s">
         <v>414</v>
       </c>
       <c r="D97" s="5" t="s">
@@ -5217,110 +5139,110 @@
       </c>
     </row>
     <row r="98" spans="1:6" ht="32">
-      <c r="A98" s="29" t="s">
+      <c r="A98" s="2" t="s">
         <v>692</v>
       </c>
-      <c r="B98" s="18" t="s">
+      <c r="B98" s="10" t="s">
         <v>416</v>
       </c>
-      <c r="C98" s="18" t="s">
+      <c r="C98" s="10" t="s">
         <v>416</v>
       </c>
       <c r="D98" s="5" t="s">
         <v>417</v>
       </c>
-      <c r="E98" s="18" t="s">
+      <c r="E98" s="10" t="s">
         <v>418</v>
       </c>
-      <c r="F98" s="18" t="s">
+      <c r="F98" s="10" t="s">
         <v>419</v>
       </c>
     </row>
     <row r="99" spans="1:6" ht="32">
-      <c r="A99" s="29" t="s">
+      <c r="A99" s="2" t="s">
         <v>693</v>
       </c>
-      <c r="B99" s="19" t="s">
+      <c r="B99" s="10" t="s">
         <v>420</v>
       </c>
-      <c r="C99" s="20" t="s">
+      <c r="C99" s="10" t="s">
         <v>421</v>
       </c>
       <c r="D99" s="5" t="s">
         <v>422</v>
       </c>
-      <c r="E99" s="18" t="s">
+      <c r="E99" s="10" t="s">
         <v>423</v>
       </c>
-      <c r="F99" s="18" t="s">
+      <c r="F99" s="10" t="s">
         <v>424</v>
       </c>
     </row>
     <row r="100" spans="1:6">
-      <c r="A100" s="29" t="s">
+      <c r="A100" s="2" t="s">
         <v>694</v>
       </c>
-      <c r="B100" s="12" t="s">
+      <c r="B100" s="7" t="s">
         <v>425</v>
       </c>
-      <c r="C100" s="11" t="s">
+      <c r="C100" s="5" t="s">
         <v>426</v>
       </c>
-      <c r="D100" s="11" t="s">
+      <c r="D100" s="5" t="s">
         <v>425</v>
       </c>
-      <c r="E100" s="11" t="s">
+      <c r="E100" s="5" t="s">
         <v>427</v>
       </c>
-      <c r="F100" s="11" t="s">
+      <c r="F100" s="5" t="s">
         <v>428</v>
       </c>
     </row>
     <row r="101" spans="1:6">
-      <c r="A101" s="29" t="s">
+      <c r="A101" s="2" t="s">
         <v>695</v>
       </c>
-      <c r="B101" s="12" t="s">
+      <c r="B101" s="7" t="s">
         <v>429</v>
       </c>
-      <c r="C101" s="11" t="s">
+      <c r="C101" s="5" t="s">
         <v>430</v>
       </c>
-      <c r="D101" s="11" t="s">
+      <c r="D101" s="5" t="s">
         <v>431</v>
       </c>
-      <c r="E101" s="11" t="s">
+      <c r="E101" s="5" t="s">
         <v>432</v>
       </c>
-      <c r="F101" s="11" t="s">
+      <c r="F101" s="5" t="s">
         <v>433</v>
       </c>
     </row>
     <row r="102" spans="1:6">
-      <c r="A102" s="29" t="s">
+      <c r="A102" s="2" t="s">
         <v>696</v>
       </c>
-      <c r="B102" s="12" t="s">
+      <c r="B102" s="7" t="s">
         <v>434</v>
       </c>
-      <c r="C102" s="11" t="s">
+      <c r="C102" s="5" t="s">
         <v>435</v>
       </c>
-      <c r="D102" s="11" t="s">
+      <c r="D102" s="5" t="s">
         <v>436</v>
       </c>
-      <c r="E102" s="11" t="s">
+      <c r="E102" s="5" t="s">
         <v>437</v>
       </c>
-      <c r="F102" s="11" t="s">
+      <c r="F102" s="5" t="s">
         <v>438</v>
       </c>
     </row>
     <row r="103" spans="1:6">
-      <c r="A103" s="29" t="s">
+      <c r="A103" s="2" t="s">
         <v>697</v>
       </c>
-      <c r="B103" s="14" t="s">
+      <c r="B103" s="7" t="s">
         <v>439</v>
       </c>
       <c r="C103" s="5" t="s">
@@ -5337,13 +5259,13 @@
       </c>
     </row>
     <row r="104" spans="1:6">
-      <c r="A104" s="29" t="s">
+      <c r="A104" s="2" t="s">
         <v>698</v>
       </c>
-      <c r="B104" s="8" t="s">
+      <c r="B104" s="7" t="s">
         <v>444</v>
       </c>
-      <c r="C104" s="4" t="s">
+      <c r="C104" s="5" t="s">
         <v>445</v>
       </c>
       <c r="D104" s="5" t="s">
@@ -5357,13 +5279,13 @@
       </c>
     </row>
     <row r="105" spans="1:6">
-      <c r="A105" s="29" t="s">
+      <c r="A105" s="2" t="s">
         <v>699</v>
       </c>
-      <c r="B105" s="8" t="s">
+      <c r="B105" s="7" t="s">
         <v>449</v>
       </c>
-      <c r="C105" s="4" t="s">
+      <c r="C105" s="5" t="s">
         <v>450</v>
       </c>
       <c r="D105" s="5" t="s">
@@ -5377,13 +5299,13 @@
       </c>
     </row>
     <row r="106" spans="1:6">
-      <c r="A106" s="29" t="s">
+      <c r="A106" s="2" t="s">
         <v>700</v>
       </c>
-      <c r="B106" s="8" t="s">
+      <c r="B106" s="7" t="s">
         <v>454</v>
       </c>
-      <c r="C106" s="4" t="s">
+      <c r="C106" s="5" t="s">
         <v>455</v>
       </c>
       <c r="D106" s="5" t="s">
@@ -5397,13 +5319,13 @@
       </c>
     </row>
     <row r="107" spans="1:6">
-      <c r="A107" s="29" t="s">
+      <c r="A107" s="2" t="s">
         <v>701</v>
       </c>
-      <c r="B107" s="8" t="s">
+      <c r="B107" s="7" t="s">
         <v>457</v>
       </c>
-      <c r="C107" s="4" t="s">
+      <c r="C107" s="5" t="s">
         <v>458</v>
       </c>
       <c r="D107" s="5" t="s">
@@ -5417,13 +5339,13 @@
       </c>
     </row>
     <row r="108" spans="1:6" ht="32">
-      <c r="A108" s="29" t="s">
+      <c r="A108" s="2" t="s">
         <v>702</v>
       </c>
-      <c r="B108" s="8" t="s">
+      <c r="B108" s="7" t="s">
         <v>461</v>
       </c>
-      <c r="C108" s="4" t="s">
+      <c r="C108" s="5" t="s">
         <v>462</v>
       </c>
       <c r="D108" s="5" t="s">
@@ -5437,13 +5359,13 @@
       </c>
     </row>
     <row r="109" spans="1:6">
-      <c r="A109" s="29" t="s">
+      <c r="A109" s="2" t="s">
         <v>703</v>
       </c>
-      <c r="B109" s="8" t="s">
+      <c r="B109" s="7" t="s">
         <v>466</v>
       </c>
-      <c r="C109" s="4" t="s">
+      <c r="C109" s="5" t="s">
         <v>467</v>
       </c>
       <c r="D109" s="5" t="s">
@@ -5457,13 +5379,13 @@
       </c>
     </row>
     <row r="110" spans="1:6">
-      <c r="A110" s="29" t="s">
+      <c r="A110" s="2" t="s">
         <v>704</v>
       </c>
-      <c r="B110" s="8" t="s">
+      <c r="B110" s="7" t="s">
         <v>471</v>
       </c>
-      <c r="C110" s="4" t="s">
+      <c r="C110" s="5" t="s">
         <v>472</v>
       </c>
       <c r="D110" s="5" t="s">
@@ -5477,13 +5399,13 @@
       </c>
     </row>
     <row r="111" spans="1:6">
-      <c r="A111" s="29" t="s">
+      <c r="A111" s="2" t="s">
         <v>705</v>
       </c>
-      <c r="B111" s="8" t="s">
+      <c r="B111" s="7" t="s">
         <v>476</v>
       </c>
-      <c r="C111" s="4" t="s">
+      <c r="C111" s="5" t="s">
         <v>477</v>
       </c>
       <c r="D111" s="5" t="s">
@@ -5497,53 +5419,53 @@
       </c>
     </row>
     <row r="112" spans="1:6">
-      <c r="A112" s="29" t="s">
+      <c r="A112" s="2" t="s">
         <v>706</v>
       </c>
-      <c r="B112" s="8" t="s">
+      <c r="B112" s="7" t="s">
         <v>481</v>
       </c>
-      <c r="C112" s="11" t="s">
+      <c r="C112" s="5" t="s">
         <v>482</v>
       </c>
-      <c r="D112" s="14" t="s">
+      <c r="D112" s="7" t="s">
         <v>483</v>
       </c>
-      <c r="E112" s="14" t="s">
+      <c r="E112" s="7" t="s">
         <v>481</v>
       </c>
-      <c r="F112" s="14" t="s">
+      <c r="F112" s="7" t="s">
         <v>481</v>
       </c>
     </row>
     <row r="113" spans="1:6">
-      <c r="A113" s="29" t="s">
+      <c r="A113" s="2" t="s">
         <v>707</v>
       </c>
-      <c r="B113" s="12" t="s">
+      <c r="B113" s="7" t="s">
         <v>484</v>
       </c>
-      <c r="C113" s="21" t="s">
+      <c r="C113" s="11" t="s">
         <v>485</v>
       </c>
-      <c r="D113" s="21" t="s">
+      <c r="D113" s="11" t="s">
         <v>486</v>
       </c>
-      <c r="E113" s="21" t="s">
+      <c r="E113" s="11" t="s">
         <v>487</v>
       </c>
-      <c r="F113" s="21" t="s">
+      <c r="F113" s="11" t="s">
         <v>488</v>
       </c>
     </row>
     <row r="114" spans="1:6" ht="32">
-      <c r="A114" s="29" t="s">
+      <c r="A114" s="2" t="s">
         <v>708</v>
       </c>
-      <c r="B114" s="8" t="s">
+      <c r="B114" s="7" t="s">
         <v>489</v>
       </c>
-      <c r="C114" s="4" t="s">
+      <c r="C114" s="5" t="s">
         <v>490</v>
       </c>
       <c r="D114" s="5" t="s">
@@ -5557,33 +5479,33 @@
       </c>
     </row>
     <row r="115" spans="1:6" ht="105">
-      <c r="A115" s="29" t="s">
+      <c r="A115" s="2" t="s">
         <v>709</v>
       </c>
-      <c r="B115" s="20" t="s">
+      <c r="B115" s="10" t="s">
         <v>494</v>
       </c>
-      <c r="C115" s="20" t="s">
+      <c r="C115" s="10" t="s">
         <v>495</v>
       </c>
-      <c r="D115" s="18" t="s">
+      <c r="D115" s="10" t="s">
         <v>496</v>
       </c>
-      <c r="E115" s="18" t="s">
+      <c r="E115" s="10" t="s">
         <v>497</v>
       </c>
-      <c r="F115" s="18" t="s">
+      <c r="F115" s="10" t="s">
         <v>498</v>
       </c>
     </row>
     <row r="116" spans="1:6">
-      <c r="A116" s="29" t="s">
+      <c r="A116" s="2" t="s">
         <v>710</v>
       </c>
-      <c r="B116" s="8" t="s">
+      <c r="B116" s="7" t="s">
         <v>499</v>
       </c>
-      <c r="C116" s="4" t="s">
+      <c r="C116" s="5" t="s">
         <v>500</v>
       </c>
       <c r="D116" s="5" t="s">
@@ -5597,13 +5519,13 @@
       </c>
     </row>
     <row r="117" spans="1:6">
-      <c r="A117" s="29" t="s">
+      <c r="A117" s="2" t="s">
         <v>711</v>
       </c>
-      <c r="B117" s="8" t="s">
+      <c r="B117" s="7" t="s">
         <v>504</v>
       </c>
-      <c r="C117" s="4" t="s">
+      <c r="C117" s="5" t="s">
         <v>505</v>
       </c>
       <c r="D117" s="5" t="s">
@@ -5617,13 +5539,13 @@
       </c>
     </row>
     <row r="118" spans="1:6">
-      <c r="A118" s="29" t="s">
+      <c r="A118" s="2" t="s">
         <v>712</v>
       </c>
-      <c r="B118" s="8" t="s">
+      <c r="B118" s="7" t="s">
         <v>509</v>
       </c>
-      <c r="C118" s="4" t="s">
+      <c r="C118" s="5" t="s">
         <v>510</v>
       </c>
       <c r="D118" s="5" t="s">
@@ -5637,13 +5559,13 @@
       </c>
     </row>
     <row r="119" spans="1:6">
-      <c r="A119" s="29" t="s">
+      <c r="A119" s="2" t="s">
         <v>713</v>
       </c>
-      <c r="B119" s="8" t="s">
+      <c r="B119" s="7" t="s">
         <v>514</v>
       </c>
-      <c r="C119" s="4" t="s">
+      <c r="C119" s="5" t="s">
         <v>515</v>
       </c>
       <c r="D119" s="5" t="s">
@@ -5657,13 +5579,13 @@
       </c>
     </row>
     <row r="120" spans="1:6" ht="48">
-      <c r="A120" s="29" t="s">
+      <c r="A120" s="2" t="s">
         <v>714</v>
       </c>
-      <c r="B120" s="8" t="s">
+      <c r="B120" s="7" t="s">
         <v>519</v>
       </c>
-      <c r="C120" s="4" t="s">
+      <c r="C120" s="5" t="s">
         <v>520</v>
       </c>
       <c r="D120" s="5" t="s">
@@ -5677,13 +5599,13 @@
       </c>
     </row>
     <row r="121" spans="1:6">
-      <c r="A121" s="29" t="s">
+      <c r="A121" s="2" t="s">
         <v>715</v>
       </c>
-      <c r="B121" s="8" t="s">
+      <c r="B121" s="7" t="s">
         <v>524</v>
       </c>
-      <c r="C121" s="4" t="s">
+      <c r="C121" s="5" t="s">
         <v>525</v>
       </c>
       <c r="D121" s="5" t="s">
@@ -5697,13 +5619,13 @@
       </c>
     </row>
     <row r="122" spans="1:6">
-      <c r="A122" s="29" t="s">
+      <c r="A122" s="2" t="s">
         <v>716</v>
       </c>
-      <c r="B122" s="8" t="s">
+      <c r="B122" s="7" t="s">
         <v>529</v>
       </c>
-      <c r="C122" s="4" t="s">
+      <c r="C122" s="5" t="s">
         <v>530</v>
       </c>
       <c r="D122" s="5" t="s">
@@ -5717,342 +5639,342 @@
       </c>
     </row>
     <row r="123" spans="1:6">
-      <c r="A123" s="29" t="s">
+      <c r="A123" s="2" t="s">
         <v>601</v>
       </c>
-      <c r="B123" s="9" t="s">
+      <c r="B123" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="C123" s="9" t="s">
+      <c r="C123" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="D123" s="22" t="s">
+      <c r="D123" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="E123" s="22" t="s">
+      <c r="E123" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="F123" s="22" t="s">
+      <c r="F123" s="12" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="124" spans="1:6" ht="272">
-      <c r="A124" s="29" t="s">
+      <c r="A124" s="2" t="s">
         <v>717</v>
       </c>
-      <c r="B124" s="23" t="s">
+      <c r="B124" s="9" t="s">
         <v>593</v>
       </c>
-      <c r="C124" s="24" t="s">
+      <c r="C124" s="1" t="s">
         <v>534</v>
       </c>
-      <c r="D124" s="25" t="s">
+      <c r="D124" s="1" t="s">
         <v>535</v>
       </c>
-      <c r="E124" s="25" t="s">
+      <c r="E124" s="1" t="s">
         <v>536</v>
       </c>
-      <c r="F124" s="15" t="s">
+      <c r="F124" s="9" t="s">
         <v>537</v>
       </c>
     </row>
     <row r="125" spans="1:6">
-      <c r="A125" s="29" t="s">
+      <c r="A125" s="2" t="s">
         <v>718</v>
       </c>
-      <c r="B125" s="9" t="s">
+      <c r="B125" s="12" t="s">
         <v>538</v>
       </c>
-      <c r="C125" s="9" t="s">
+      <c r="C125" s="12" t="s">
         <v>538</v>
       </c>
-      <c r="D125" s="26" t="s">
+      <c r="D125" s="12" t="s">
         <v>538</v>
       </c>
-      <c r="E125" s="26" t="s">
+      <c r="E125" s="12" t="s">
         <v>539</v>
       </c>
-      <c r="F125" s="26" t="s">
+      <c r="F125" s="12" t="s">
         <v>539</v>
       </c>
     </row>
     <row r="126" spans="1:6" ht="409.6">
-      <c r="A126" s="29" t="s">
+      <c r="A126" s="2" t="s">
         <v>719</v>
       </c>
-      <c r="B126" s="17" t="s">
+      <c r="B126" s="9" t="s">
         <v>540</v>
       </c>
-      <c r="C126" s="17" t="s">
+      <c r="C126" s="9" t="s">
         <v>541</v>
       </c>
-      <c r="D126" s="15" t="s">
+      <c r="D126" s="9" t="s">
         <v>542</v>
       </c>
-      <c r="E126" s="15" t="s">
+      <c r="E126" s="9" t="s">
         <v>543</v>
       </c>
-      <c r="F126" s="15" t="s">
+      <c r="F126" s="9" t="s">
         <v>544</v>
       </c>
     </row>
     <row r="127" spans="1:6">
-      <c r="A127" s="29" t="s">
+      <c r="A127" s="2" t="s">
         <v>720</v>
       </c>
-      <c r="B127" s="9" t="s">
+      <c r="B127" s="12" t="s">
         <v>545</v>
       </c>
-      <c r="C127" s="9" t="s">
+      <c r="C127" s="12" t="s">
         <v>546</v>
       </c>
-      <c r="D127" s="26" t="s">
+      <c r="D127" s="12" t="s">
         <v>547</v>
       </c>
-      <c r="E127" s="26" t="s">
+      <c r="E127" s="12" t="s">
         <v>548</v>
       </c>
-      <c r="F127" s="26" t="s">
+      <c r="F127" s="12" t="s">
         <v>549</v>
       </c>
     </row>
     <row r="128" spans="1:6" ht="409.6">
-      <c r="A128" s="29" t="s">
+      <c r="A128" s="2" t="s">
         <v>721</v>
       </c>
-      <c r="B128" s="17" t="s">
+      <c r="B128" s="9" t="s">
         <v>550</v>
       </c>
-      <c r="C128" s="17" t="s">
+      <c r="C128" s="9" t="s">
         <v>551</v>
       </c>
-      <c r="D128" s="15" t="s">
+      <c r="D128" s="9" t="s">
         <v>552</v>
       </c>
-      <c r="E128" s="15" t="s">
+      <c r="E128" s="9" t="s">
         <v>553</v>
       </c>
-      <c r="F128" s="15" t="s">
+      <c r="F128" s="9" t="s">
         <v>554</v>
       </c>
     </row>
     <row r="129" spans="1:6" ht="30">
-      <c r="A129" s="29" t="s">
+      <c r="A129" s="2" t="s">
         <v>722</v>
       </c>
-      <c r="B129" s="27" t="s">
+      <c r="B129" s="13" t="s">
         <v>34</v>
       </c>
-      <c r="C129" s="27" t="s">
+      <c r="C129" s="13" t="s">
         <v>35</v>
       </c>
-      <c r="D129" s="26" t="s">
+      <c r="D129" s="12" t="s">
         <v>36</v>
       </c>
-      <c r="E129" s="26" t="s">
+      <c r="E129" s="12" t="s">
         <v>37</v>
       </c>
-      <c r="F129" s="26" t="s">
+      <c r="F129" s="12" t="s">
         <v>555</v>
       </c>
     </row>
     <row r="130" spans="1:6" ht="409.6">
-      <c r="A130" s="29" t="s">
+      <c r="A130" s="2" t="s">
         <v>723</v>
       </c>
-      <c r="B130" s="17" t="s">
+      <c r="B130" s="9" t="s">
         <v>556</v>
       </c>
-      <c r="C130" s="17" t="s">
+      <c r="C130" s="9" t="s">
         <v>557</v>
       </c>
-      <c r="D130" s="15" t="s">
+      <c r="D130" s="9" t="s">
         <v>558</v>
       </c>
-      <c r="E130" s="15" t="s">
+      <c r="E130" s="9" t="s">
         <v>559</v>
       </c>
-      <c r="F130" s="15" t="s">
+      <c r="F130" s="9" t="s">
         <v>560</v>
       </c>
     </row>
     <row r="131" spans="1:6" ht="32">
-      <c r="A131" s="29" t="s">
+      <c r="A131" s="2" t="s">
         <v>610</v>
       </c>
-      <c r="B131" s="27" t="s">
+      <c r="B131" s="13" t="s">
         <v>56</v>
       </c>
-      <c r="C131" s="27" t="s">
+      <c r="C131" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="D131" s="26" t="s">
+      <c r="D131" s="12" t="s">
         <v>58</v>
       </c>
-      <c r="E131" s="26" t="s">
+      <c r="E131" s="12" t="s">
         <v>59</v>
       </c>
-      <c r="F131" s="26" t="s">
+      <c r="F131" s="12" t="s">
         <v>561</v>
       </c>
     </row>
     <row r="132" spans="1:6" ht="409.6">
-      <c r="A132" s="29" t="s">
+      <c r="A132" s="2" t="s">
         <v>724</v>
       </c>
-      <c r="B132" s="17" t="s">
+      <c r="B132" s="9" t="s">
         <v>562</v>
       </c>
-      <c r="C132" s="17" t="s">
+      <c r="C132" s="9" t="s">
         <v>563</v>
       </c>
-      <c r="D132" s="15" t="s">
+      <c r="D132" s="9" t="s">
         <v>564</v>
       </c>
-      <c r="E132" s="15" t="s">
+      <c r="E132" s="9" t="s">
         <v>565</v>
       </c>
-      <c r="F132" s="15" t="s">
+      <c r="F132" s="9" t="s">
         <v>566</v>
       </c>
     </row>
     <row r="133" spans="1:6">
-      <c r="A133" s="29" t="s">
+      <c r="A133" s="2" t="s">
         <v>624</v>
       </c>
-      <c r="B133" s="27" t="s">
+      <c r="B133" s="13" t="s">
         <v>117</v>
       </c>
-      <c r="C133" s="9" t="s">
+      <c r="C133" s="12" t="s">
         <v>567</v>
       </c>
-      <c r="D133" s="26" t="s">
+      <c r="D133" s="12" t="s">
         <v>119</v>
       </c>
-      <c r="E133" s="26" t="s">
+      <c r="E133" s="12" t="s">
         <v>120</v>
       </c>
-      <c r="F133" s="26" t="s">
+      <c r="F133" s="12" t="s">
         <v>121</v>
       </c>
     </row>
     <row r="134" spans="1:6" ht="380">
-      <c r="A134" s="29" t="s">
+      <c r="A134" s="2" t="s">
         <v>725</v>
       </c>
-      <c r="B134" s="15" t="s">
+      <c r="B134" s="9" t="s">
         <v>568</v>
       </c>
-      <c r="C134" s="15" t="s">
+      <c r="C134" s="9" t="s">
         <v>569</v>
       </c>
-      <c r="D134" s="15" t="s">
+      <c r="D134" s="9" t="s">
         <v>570</v>
       </c>
-      <c r="E134" s="15" t="s">
+      <c r="E134" s="9" t="s">
         <v>571</v>
       </c>
-      <c r="F134" s="15" t="s">
+      <c r="F134" s="9" t="s">
         <v>572</v>
       </c>
     </row>
     <row r="135" spans="1:6">
-      <c r="A135" s="29" t="s">
+      <c r="A135" s="2" t="s">
         <v>726</v>
       </c>
-      <c r="B135" s="27" t="s">
+      <c r="B135" s="13" t="s">
         <v>573</v>
       </c>
-      <c r="C135" s="9" t="s">
+      <c r="C135" s="12" t="s">
         <v>574</v>
       </c>
-      <c r="D135" s="26" t="s">
+      <c r="D135" s="12" t="s">
         <v>575</v>
       </c>
-      <c r="E135" s="26" t="s">
+      <c r="E135" s="12" t="s">
         <v>576</v>
       </c>
-      <c r="F135" s="26" t="s">
+      <c r="F135" s="12" t="s">
         <v>575</v>
       </c>
     </row>
     <row r="136" spans="1:6" ht="409.6">
-      <c r="A136" s="29" t="s">
+      <c r="A136" s="2" t="s">
         <v>727</v>
       </c>
-      <c r="B136" s="17" t="s">
+      <c r="B136" s="9" t="s">
         <v>577</v>
       </c>
-      <c r="C136" s="17" t="s">
+      <c r="C136" s="9" t="s">
         <v>578</v>
       </c>
-      <c r="D136" s="15" t="s">
+      <c r="D136" s="9" t="s">
         <v>579</v>
       </c>
-      <c r="E136" s="15" t="s">
+      <c r="E136" s="9" t="s">
         <v>580</v>
       </c>
-      <c r="F136" s="15" t="s">
+      <c r="F136" s="9" t="s">
         <v>581</v>
       </c>
     </row>
     <row r="137" spans="1:6">
-      <c r="A137" s="29" t="s">
+      <c r="A137" s="2" t="s">
         <v>631</v>
       </c>
-      <c r="B137" s="28" t="s">
+      <c r="B137" s="14" t="s">
         <v>146</v>
       </c>
-      <c r="C137" s="9" t="s">
+      <c r="C137" s="12" t="s">
         <v>147</v>
       </c>
-      <c r="D137" s="22" t="s">
+      <c r="D137" s="12" t="s">
         <v>148</v>
       </c>
-      <c r="E137" s="22" t="s">
+      <c r="E137" s="12" t="s">
         <v>149</v>
       </c>
-      <c r="F137" s="22" t="s">
+      <c r="F137" s="12" t="s">
         <v>150</v>
       </c>
     </row>
     <row r="138" spans="1:6" ht="272">
-      <c r="A138" s="29" t="s">
+      <c r="A138" s="2" t="s">
         <v>728</v>
       </c>
-      <c r="B138" s="17" t="s">
+      <c r="B138" s="9" t="s">
         <v>582</v>
       </c>
-      <c r="C138" s="17" t="s">
+      <c r="C138" s="9" t="s">
         <v>583</v>
       </c>
-      <c r="D138" s="15" t="s">
+      <c r="D138" s="9" t="s">
         <v>584</v>
       </c>
-      <c r="E138" s="15" t="s">
+      <c r="E138" s="9" t="s">
         <v>585</v>
       </c>
-      <c r="F138" s="15" t="s">
+      <c r="F138" s="9" t="s">
         <v>586</v>
       </c>
     </row>
     <row r="139" spans="1:6">
-      <c r="A139" s="29" t="s">
+      <c r="A139" s="2" t="s">
         <v>729</v>
       </c>
-      <c r="B139" s="17" t="s">
+      <c r="B139" s="9" t="s">
         <v>587</v>
       </c>
-      <c r="C139" s="17" t="s">
+      <c r="C139" s="9" t="s">
         <v>588</v>
       </c>
-      <c r="D139" s="17" t="s">
+      <c r="D139" s="9" t="s">
         <v>589</v>
       </c>
-      <c r="E139" s="17" t="s">
+      <c r="E139" s="9" t="s">
         <v>590</v>
       </c>
-      <c r="F139" s="17" t="s">
+      <c r="F139" s="9" t="s">
         <v>591</v>
       </c>
     </row>
